--- a/biology/Zoologie/Caledothele_australiensis/Caledothele_australiensis.xlsx
+++ b/biology/Zoologie/Caledothele_australiensis/Caledothele_australiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caledothele australiensis est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caledothele australiensis est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Victoria en Australie[1]. Elle se rencontre dans le Gippsland.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Victoria en Australie. Elle se rencontre dans le Gippsland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,77 mm de long sur 2,28 mm et l'abdomen 2,86 mm de long sur 1,75 mm et la carapace de la femelle paratype mesure 4,06 mm de long sur 3,25 mm et l'abdomen 4,94 mm de long sur 3,31 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,77 mm de long sur 2,28 mm et l'abdomen 2,86 mm de long sur 1,75 mm et la carapace de la femelle paratype mesure 4,06 mm de long sur 3,25 mm et l'abdomen 4,94 mm de long sur 3,31 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stenygrocercus australiensis par Raven en 1984. Elle est placée dans le genre Caledothele par Raven en 1991[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stenygrocercus australiensis par Raven en 1984. Elle est placée dans le genre Caledothele par Raven en 1991.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de australi[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Raven, 1984 : Systematics of the Australian curtain-web spiders (Ischnotheline: Dipluridae: Chelicerata). Australian Journal of Zoology Supplementary Series, vol. 93, p. 1-102.</t>
         </is>
